--- a/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 등록_AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 등록_AND-04_테이블정의서_v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK. FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +494,26 @@
   </si>
   <si>
     <t>SKIL_DIVS_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 스킬 순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRJ_REQ_SKIL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1617,10 +1633,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -1709,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1993,14 +2009,14 @@
         <v>69</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>77</v>
@@ -2021,10 +2037,10 @@
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
@@ -2038,14 +2054,14 @@
         <v>82</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2069,7 +2085,7 @@
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2091,7 +2107,7 @@
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2113,7 +2129,7 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24" t="s">
@@ -2137,7 +2153,7 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2161,7 +2177,7 @@
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2183,7 +2199,7 @@
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2192,20 +2208,20 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2214,20 +2230,20 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -2242,14 +2258,14 @@
         <v>75</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -2264,7 +2280,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>72</v>
@@ -2286,14 +2302,14 @@
         <v>76</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -2308,7 +2324,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>74</v>
@@ -2337,7 +2353,7 @@
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24" t="s">
@@ -2361,7 +2377,7 @@
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -2385,7 +2401,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2402,7 +2418,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>67</v>
@@ -2434,13 +2450,13 @@
         <v>87</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="11" t="s">
@@ -2450,42 +2466,44 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="F39" s="24" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -2494,20 +2512,20 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -2516,20 +2534,20 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -2538,20 +2556,20 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -2560,20 +2578,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -2581,12 +2599,22 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -2675,6 +2703,18 @@
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
